--- a/contratos/contratos-8-2020.xlsx
+++ b/contratos/contratos-8-2020.xlsx
@@ -1144,7 +1144,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1171,7 +1171,7 @@
     <t>WEIGANDT GERARDO ARTURO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1186,7 +1186,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GONZALEZ SONIA MARIA</t>
@@ -1285,7 +1285,7 @@
     <t>GUADA S.R.L.</t>
   </si>
   <si>
-    <t>ODIARD, OSCAR HERNAN</t>
+    <t>ODIARD. OSCAR HERNAN</t>
   </si>
   <si>
     <t>HERLEIN GERARDO ANTONIO</t>
@@ -1462,7 +1462,7 @@
     <t>ASOCIACION BOMBEROS C. DEL URUGUAY</t>
   </si>
   <si>
-    <t>MORERA, SALVADOR</t>
+    <t>MORERA. SALVADOR</t>
   </si>
   <si>
     <t>PINTURERIA CONCEPCION</t>
@@ -1699,682 +1699,682 @@
     <t>88</t>
   </si>
   <si>
-    <t>27.500,00</t>
-  </si>
-  <si>
-    <t>145.200,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>185.030,00</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>20.727,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>20.984,00</t>
-  </si>
-  <si>
-    <t>657,52</t>
-  </si>
-  <si>
-    <t>2.306,60</t>
-  </si>
-  <si>
-    <t>31.345,00</t>
-  </si>
-  <si>
-    <t>58.150,00</t>
-  </si>
-  <si>
-    <t>462.228,00</t>
-  </si>
-  <si>
-    <t>76.700,00</t>
-  </si>
-  <si>
-    <t>556.532,49</t>
-  </si>
-  <si>
-    <t>72.670,00</t>
-  </si>
-  <si>
-    <t>1.444.203,16</t>
-  </si>
-  <si>
-    <t>180.000,00</t>
-  </si>
-  <si>
-    <t>168.000,00</t>
-  </si>
-  <si>
-    <t>1.776.473,94</t>
-  </si>
-  <si>
-    <t>46.300,00</t>
-  </si>
-  <si>
-    <t>11.440,00</t>
-  </si>
-  <si>
-    <t>21.201,20</t>
-  </si>
-  <si>
-    <t>21.970,99</t>
-  </si>
-  <si>
-    <t>165.600,00</t>
-  </si>
-  <si>
-    <t>127.788,04</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>8.280,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>13.010,00</t>
-  </si>
-  <si>
-    <t>2.505,63</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>85.500,00</t>
-  </si>
-  <si>
-    <t>2.934.503,97</t>
-  </si>
-  <si>
-    <t>84.732,57</t>
-  </si>
-  <si>
-    <t>2.390,00</t>
-  </si>
-  <si>
-    <t>31.562,00</t>
-  </si>
-  <si>
-    <t>47.820,00</t>
-  </si>
-  <si>
-    <t>75.882,50</t>
-  </si>
-  <si>
-    <t>163.540,00</t>
-  </si>
-  <si>
-    <t>55.020,00</t>
-  </si>
-  <si>
-    <t>35.651,74</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>7.720,04</t>
-  </si>
-  <si>
-    <t>40.060,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>62.952,15</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>2.460,00</t>
-  </si>
-  <si>
-    <t>12.294,99</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>25.754,54</t>
-  </si>
-  <si>
-    <t>19.700,00</t>
-  </si>
-  <si>
-    <t>34.350,74</t>
-  </si>
-  <si>
-    <t>27.253,12</t>
-  </si>
-  <si>
-    <t>33.962,64</t>
-  </si>
-  <si>
-    <t>35.112,00</t>
-  </si>
-  <si>
-    <t>11.116,86</t>
-  </si>
-  <si>
-    <t>1.590,00</t>
-  </si>
-  <si>
-    <t>22.234,40</t>
-  </si>
-  <si>
-    <t>836,02</t>
-  </si>
-  <si>
-    <t>798.689,20</t>
-  </si>
-  <si>
-    <t>11.180,00</t>
-  </si>
-  <si>
-    <t>18.700,00</t>
-  </si>
-  <si>
-    <t>85.961,29</t>
-  </si>
-  <si>
-    <t>59.062,50</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>17.734,55</t>
-  </si>
-  <si>
-    <t>1.634,13</t>
-  </si>
-  <si>
-    <t>12.768,00</t>
-  </si>
-  <si>
-    <t>132.000,00</t>
-  </si>
-  <si>
-    <t>941,20</t>
-  </si>
-  <si>
-    <t>46.625,00</t>
-  </si>
-  <si>
-    <t>886.189,68</t>
-  </si>
-  <si>
-    <t>6.996,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>57.120,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>12.342,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>19.980,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>10.380,00</t>
-  </si>
-  <si>
-    <t>17.847,25</t>
-  </si>
-  <si>
-    <t>87,27</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>20.440,00</t>
-  </si>
-  <si>
-    <t>8.590,00</t>
-  </si>
-  <si>
-    <t>22.759,00</t>
-  </si>
-  <si>
-    <t>68.400,00</t>
-  </si>
-  <si>
-    <t>865,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>331.500,00</t>
-  </si>
-  <si>
-    <t>66.810,00</t>
-  </si>
-  <si>
-    <t>27.960,00</t>
-  </si>
-  <si>
-    <t>14.258,88</t>
-  </si>
-  <si>
-    <t>144,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.955,00</t>
-  </si>
-  <si>
-    <t>106.500,00</t>
-  </si>
-  <si>
-    <t>20.748,00</t>
-  </si>
-  <si>
-    <t>1.175,00</t>
-  </si>
-  <si>
-    <t>16.579,00</t>
-  </si>
-  <si>
-    <t>30.720,00</t>
-  </si>
-  <si>
-    <t>1.048,00</t>
-  </si>
-  <si>
-    <t>48.533,46</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>22.566,40</t>
-  </si>
-  <si>
-    <t>55.152,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>5.103,00</t>
-  </si>
-  <si>
-    <t>1.476,00</t>
-  </si>
-  <si>
-    <t>21.485,00</t>
-  </si>
-  <si>
-    <t>5.495,25</t>
-  </si>
-  <si>
-    <t>2.440,00</t>
-  </si>
-  <si>
-    <t>51.440,00</t>
-  </si>
-  <si>
-    <t>12.499,84</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>52.578,00</t>
-  </si>
-  <si>
-    <t>18.800,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>332.000,00</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>73.720,00</t>
-  </si>
-  <si>
-    <t>15.866,44</t>
-  </si>
-  <si>
-    <t>90.602,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>13.560,44</t>
-  </si>
-  <si>
-    <t>32.728,50</t>
-  </si>
-  <si>
-    <t>237,88</t>
-  </si>
-  <si>
-    <t>110.251,03</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>565,53</t>
-  </si>
-  <si>
-    <t>31.783,00</t>
-  </si>
-  <si>
-    <t>41.568,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>23.205,00</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>10.070,00</t>
-  </si>
-  <si>
-    <t>159.847,78</t>
-  </si>
-  <si>
-    <t>10.204,20</t>
-  </si>
-  <si>
-    <t>773,92</t>
-  </si>
-  <si>
-    <t>11.370,00</t>
-  </si>
-  <si>
-    <t>50.146,00</t>
-  </si>
-  <si>
-    <t>7.169,29</t>
-  </si>
-  <si>
-    <t>27.645,00</t>
-  </si>
-  <si>
-    <t>5.612,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>10.460,00</t>
-  </si>
-  <si>
-    <t>5.856,26</t>
-  </si>
-  <si>
-    <t>19.850,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>3.610,00</t>
-  </si>
-  <si>
-    <t>22.101,57</t>
-  </si>
-  <si>
-    <t>58.160,00</t>
-  </si>
-  <si>
-    <t>31.910,00</t>
-  </si>
-  <si>
-    <t>34.881,60</t>
-  </si>
-  <si>
-    <t>195,00</t>
-  </si>
-  <si>
-    <t>1.870,00</t>
-  </si>
-  <si>
-    <t>651,47</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>65.400,00</t>
-  </si>
-  <si>
-    <t>60.800,00</t>
-  </si>
-  <si>
-    <t>6.999,52</t>
-  </si>
-  <si>
-    <t>41.552,00</t>
-  </si>
-  <si>
-    <t>5.890,00</t>
-  </si>
-  <si>
-    <t>15.800,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>34.597,41</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>10.587,50</t>
-  </si>
-  <si>
-    <t>9.145.919,71</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>309.000,00</t>
-  </si>
-  <si>
-    <t>341.580,00</t>
-  </si>
-  <si>
-    <t>588.000,00</t>
-  </si>
-  <si>
-    <t>805.390,00</t>
-  </si>
-  <si>
-    <t>1.046.000,00</t>
-  </si>
-  <si>
-    <t>424.920,00</t>
-  </si>
-  <si>
-    <t>618.000,00</t>
-  </si>
-  <si>
-    <t>616.500,00</t>
-  </si>
-  <si>
-    <t>609.000,00</t>
-  </si>
-  <si>
-    <t>909.000,00</t>
-  </si>
-  <si>
-    <t>891.940,00</t>
-  </si>
-  <si>
-    <t>334.663,00</t>
-  </si>
-  <si>
-    <t>1.017.352,36</t>
-  </si>
-  <si>
-    <t>215.000,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>13.600,00</t>
-  </si>
-  <si>
-    <t>19.400,00</t>
-  </si>
-  <si>
-    <t>103.128,30</t>
-  </si>
-  <si>
-    <t>224.860,35</t>
-  </si>
-  <si>
-    <t>67.800,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>8.255,25</t>
-  </si>
-  <si>
-    <t>7.385,00</t>
-  </si>
-  <si>
-    <t>16.694,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>145200.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>185030.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>20727.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>20984.00</t>
+  </si>
+  <si>
+    <t>657.52</t>
+  </si>
+  <si>
+    <t>2306.60</t>
+  </si>
+  <si>
+    <t>31345.00</t>
+  </si>
+  <si>
+    <t>58150.00</t>
+  </si>
+  <si>
+    <t>462228.00</t>
+  </si>
+  <si>
+    <t>76700.00</t>
+  </si>
+  <si>
+    <t>556532.49</t>
+  </si>
+  <si>
+    <t>72670.00</t>
+  </si>
+  <si>
+    <t>1444203.16</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>168000.00</t>
+  </si>
+  <si>
+    <t>1776473.94</t>
+  </si>
+  <si>
+    <t>46300.00</t>
+  </si>
+  <si>
+    <t>11440.00</t>
+  </si>
+  <si>
+    <t>21201.20</t>
+  </si>
+  <si>
+    <t>21970.99</t>
+  </si>
+  <si>
+    <t>165600.00</t>
+  </si>
+  <si>
+    <t>127788.04</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>8280.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>13010.00</t>
+  </si>
+  <si>
+    <t>2505.63</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>85500.00</t>
+  </si>
+  <si>
+    <t>2934503.97</t>
+  </si>
+  <si>
+    <t>84732.57</t>
+  </si>
+  <si>
+    <t>2390.00</t>
+  </si>
+  <si>
+    <t>31562.00</t>
+  </si>
+  <si>
+    <t>47820.00</t>
+  </si>
+  <si>
+    <t>75882.50</t>
+  </si>
+  <si>
+    <t>163540.00</t>
+  </si>
+  <si>
+    <t>55020.00</t>
+  </si>
+  <si>
+    <t>35651.74</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>7720.04</t>
+  </si>
+  <si>
+    <t>40060.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>62952.15</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>2460.00</t>
+  </si>
+  <si>
+    <t>12294.99</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>25754.54</t>
+  </si>
+  <si>
+    <t>19700.00</t>
+  </si>
+  <si>
+    <t>34350.74</t>
+  </si>
+  <si>
+    <t>27253.12</t>
+  </si>
+  <si>
+    <t>33962.64</t>
+  </si>
+  <si>
+    <t>35112.00</t>
+  </si>
+  <si>
+    <t>11116.86</t>
+  </si>
+  <si>
+    <t>1590.00</t>
+  </si>
+  <si>
+    <t>22234.40</t>
+  </si>
+  <si>
+    <t>836.02</t>
+  </si>
+  <si>
+    <t>798689.20</t>
+  </si>
+  <si>
+    <t>11180.00</t>
+  </si>
+  <si>
+    <t>18700.00</t>
+  </si>
+  <si>
+    <t>85961.29</t>
+  </si>
+  <si>
+    <t>59062.50</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>17734.55</t>
+  </si>
+  <si>
+    <t>1634.13</t>
+  </si>
+  <si>
+    <t>12768.00</t>
+  </si>
+  <si>
+    <t>132000.00</t>
+  </si>
+  <si>
+    <t>941.20</t>
+  </si>
+  <si>
+    <t>46625.00</t>
+  </si>
+  <si>
+    <t>886189.68</t>
+  </si>
+  <si>
+    <t>6996.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>57120.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>12342.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>19980.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>10380.00</t>
+  </si>
+  <si>
+    <t>17847.25</t>
+  </si>
+  <si>
+    <t>87.27</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>20440.00</t>
+  </si>
+  <si>
+    <t>8590.00</t>
+  </si>
+  <si>
+    <t>22759.00</t>
+  </si>
+  <si>
+    <t>68400.00</t>
+  </si>
+  <si>
+    <t>865.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>331500.00</t>
+  </si>
+  <si>
+    <t>66810.00</t>
+  </si>
+  <si>
+    <t>27960.00</t>
+  </si>
+  <si>
+    <t>14258.88</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1955.00</t>
+  </si>
+  <si>
+    <t>106500.00</t>
+  </si>
+  <si>
+    <t>20748.00</t>
+  </si>
+  <si>
+    <t>1175.00</t>
+  </si>
+  <si>
+    <t>16579.00</t>
+  </si>
+  <si>
+    <t>30720.00</t>
+  </si>
+  <si>
+    <t>1048.00</t>
+  </si>
+  <si>
+    <t>48533.46</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>22566.40</t>
+  </si>
+  <si>
+    <t>55152.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>5103.00</t>
+  </si>
+  <si>
+    <t>1476.00</t>
+  </si>
+  <si>
+    <t>21485.00</t>
+  </si>
+  <si>
+    <t>5495.25</t>
+  </si>
+  <si>
+    <t>2440.00</t>
+  </si>
+  <si>
+    <t>51440.00</t>
+  </si>
+  <si>
+    <t>12499.84</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>52578.00</t>
+  </si>
+  <si>
+    <t>18800.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>332000.00</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>73720.00</t>
+  </si>
+  <si>
+    <t>15866.44</t>
+  </si>
+  <si>
+    <t>90602.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>13560.44</t>
+  </si>
+  <si>
+    <t>32728.50</t>
+  </si>
+  <si>
+    <t>237.88</t>
+  </si>
+  <si>
+    <t>110251.03</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>565.53</t>
+  </si>
+  <si>
+    <t>31783.00</t>
+  </si>
+  <si>
+    <t>41568.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>23205.00</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>10070.00</t>
+  </si>
+  <si>
+    <t>159847.78</t>
+  </si>
+  <si>
+    <t>10204.20</t>
+  </si>
+  <si>
+    <t>773.92</t>
+  </si>
+  <si>
+    <t>11370.00</t>
+  </si>
+  <si>
+    <t>50146.00</t>
+  </si>
+  <si>
+    <t>7169.29</t>
+  </si>
+  <si>
+    <t>27645.00</t>
+  </si>
+  <si>
+    <t>5612.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>10460.00</t>
+  </si>
+  <si>
+    <t>5856.26</t>
+  </si>
+  <si>
+    <t>19850.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>3610.00</t>
+  </si>
+  <si>
+    <t>22101.57</t>
+  </si>
+  <si>
+    <t>58160.00</t>
+  </si>
+  <si>
+    <t>31910.00</t>
+  </si>
+  <si>
+    <t>34881.60</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>1870.00</t>
+  </si>
+  <si>
+    <t>651.47</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>65400.00</t>
+  </si>
+  <si>
+    <t>60800.00</t>
+  </si>
+  <si>
+    <t>6999.52</t>
+  </si>
+  <si>
+    <t>41552.00</t>
+  </si>
+  <si>
+    <t>5890.00</t>
+  </si>
+  <si>
+    <t>15800.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>34597.41</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>10587.50</t>
+  </si>
+  <si>
+    <t>9145919.71</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>309000.00</t>
+  </si>
+  <si>
+    <t>341580.00</t>
+  </si>
+  <si>
+    <t>588000.00</t>
+  </si>
+  <si>
+    <t>805390.00</t>
+  </si>
+  <si>
+    <t>1046000.00</t>
+  </si>
+  <si>
+    <t>424920.00</t>
+  </si>
+  <si>
+    <t>618000.00</t>
+  </si>
+  <si>
+    <t>616500.00</t>
+  </si>
+  <si>
+    <t>609000.00</t>
+  </si>
+  <si>
+    <t>909000.00</t>
+  </si>
+  <si>
+    <t>891940.00</t>
+  </si>
+  <si>
+    <t>334663.00</t>
+  </si>
+  <si>
+    <t>1017352.36</t>
+  </si>
+  <si>
+    <t>215000.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>13600.00</t>
+  </si>
+  <si>
+    <t>19400.00</t>
+  </si>
+  <si>
+    <t>103128.30</t>
+  </si>
+  <si>
+    <t>224860.35</t>
+  </si>
+  <si>
+    <t>67800.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>8255.25</t>
+  </si>
+  <si>
+    <t>7385.00</t>
+  </si>
+  <si>
+    <t>16694.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
   </si>
 </sst>
 </file>
